--- a/doc/featurelist.xlsx
+++ b/doc/featurelist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="机器学习平台特性列表" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>一级特性</t>
   </si>
@@ -149,10 +149,22 @@
     <t>支持深度学习</t>
   </si>
   <si>
+    <t>支持AI编译器</t>
+  </si>
+  <si>
     <t>支持AI模型分布式训练</t>
   </si>
   <si>
     <t>支持工作流</t>
+  </si>
+  <si>
+    <t>支持创建工作流</t>
+  </si>
+  <si>
+    <t>支持删除工作流</t>
+  </si>
+  <si>
+    <t>支持修改工作流</t>
   </si>
   <si>
     <t>支持工作流任务</t>
@@ -1196,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1432,29 +1444,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="59" spans="3:3">
+      <c r="C59" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -1462,23 +1479,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1492,14 +1504,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1564,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1541,7 +1578,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1558,7 +1595,7 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -1593,87 +1630,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1700,10 +1737,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1714,10 +1751,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/doc/featurelist.xlsx
+++ b/doc/featurelist.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>一级特性</t>
   </si>
@@ -149,6 +149,9 @@
     <t>支持深度学习</t>
   </si>
   <si>
+    <t>支持模型调试</t>
+  </si>
+  <si>
     <t>支持AI编译器</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
   </si>
   <si>
     <t>支持更新服务</t>
+  </si>
+  <si>
+    <t>支持AI模型测试</t>
   </si>
   <si>
     <t>支持数据集管理</t>
@@ -274,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -285,6 +291,90 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,7 +387,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,16 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,9 +417,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,89 +437,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,13 +447,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,169 +597,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,20 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,17 +671,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,17 +695,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,162 +738,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1444,29 +1450,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -1474,69 +1470,89 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>49</v>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="65" spans="3:3">
+      <c r="C65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1580,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1578,7 +1594,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1630,87 +1646,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1737,10 +1753,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1751,10 +1767,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
